--- a/1.xlsx
+++ b/1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ghosttusng\RDEXcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8848B4C-075E-4C92-8C02-03DB9A32AEF5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2659957-F997-491C-AAE8-2F0625E7DF09}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -2222,7 +2222,7 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2230,8 +2230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
@@ -3552,17 +3552,23 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:T73"/>
+  <dimension ref="A1:T44"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="23" customWidth="1"/>
+    <col min="12" max="12" width="15.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -3843,37 +3849,97 @@
       <c r="J5">
         <v>13</v>
       </c>
+      <c r="K5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5">
+        <v>2018.03</v>
+      </c>
+      <c r="M5" t="s">
+        <v>169</v>
+      </c>
+      <c r="N5" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P5" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>164</v>
+      </c>
+      <c r="R5">
+        <v>30</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6">
+        <v>36</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>14</v>
+      </c>
       <c r="K6" t="s">
         <v>27</v>
       </c>
       <c r="L6">
-        <v>2018.03</v>
+        <v>2018.07</v>
       </c>
       <c r="M6" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="N6" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="O6" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="P6" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="Q6" t="s">
         <v>164</v>
       </c>
       <c r="R6">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="S6">
         <v>1</v>
       </c>
       <c r="T6">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
@@ -3881,48 +3947,108 @@
         <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
         <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F7" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H7">
-        <v>36</v>
+        <v>160</v>
       </c>
       <c r="I7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J7">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="K7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" t="s">
+        <v>171</v>
+      </c>
+      <c r="M7" t="s">
+        <v>172</v>
+      </c>
+      <c r="N7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P7" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>164</v>
+      </c>
+      <c r="R7">
+        <v>160</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8">
+        <v>20</v>
+      </c>
+      <c r="I8">
+        <v>7</v>
+      </c>
+      <c r="J8">
+        <v>16</v>
+      </c>
       <c r="K8" t="s">
         <v>27</v>
       </c>
-      <c r="L8">
-        <v>2018.03</v>
+      <c r="L8" t="s">
+        <v>173</v>
       </c>
       <c r="M8" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="N8" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="O8" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="P8" t="s">
         <v>163</v>
@@ -3931,62 +4057,122 @@
         <v>164</v>
       </c>
       <c r="R8">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="S8">
         <v>1</v>
       </c>
       <c r="T8">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F9" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G9" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H9">
-        <v>160</v>
+        <v>600</v>
       </c>
       <c r="I9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J9">
+        <v>17</v>
+      </c>
+      <c r="K9" t="s">
+        <v>46</v>
+      </c>
+      <c r="L9">
+        <v>2018.07</v>
+      </c>
+      <c r="M9" t="s">
+        <v>176</v>
+      </c>
+      <c r="N9" t="s">
+        <v>52</v>
+      </c>
+      <c r="O9" t="s">
+        <v>51</v>
+      </c>
+      <c r="P9" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>164</v>
+      </c>
+      <c r="R9">
+        <v>600</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="T9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10">
+        <v>4800</v>
+      </c>
+      <c r="I10">
+        <v>9</v>
+      </c>
+      <c r="J10">
+        <v>18</v>
+      </c>
       <c r="K10" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="L10">
-        <v>2018.07</v>
+        <v>2018.12</v>
       </c>
       <c r="M10" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="N10" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="O10" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="P10" t="s">
         <v>163</v>
@@ -3995,62 +4181,122 @@
         <v>164</v>
       </c>
       <c r="R10">
-        <v>36</v>
+        <v>4800</v>
       </c>
       <c r="S10">
         <v>1</v>
       </c>
       <c r="T10">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="F11" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="H11">
+        <v>100</v>
+      </c>
+      <c r="I11">
+        <v>11</v>
+      </c>
+      <c r="J11">
         <v>20</v>
       </c>
-      <c r="I11">
-        <v>7</v>
-      </c>
-      <c r="J11">
+      <c r="K11" t="s">
+        <v>60</v>
+      </c>
+      <c r="L11">
+        <v>2018.09</v>
+      </c>
+      <c r="M11" t="s">
+        <v>165</v>
+      </c>
+      <c r="N11" t="s">
         <v>16</v>
       </c>
+      <c r="O11" t="s">
+        <v>15</v>
+      </c>
+      <c r="P11" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>179</v>
+      </c>
+      <c r="R11">
+        <v>100</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="T11">
+        <v>12</v>
+      </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12">
+        <v>12</v>
+      </c>
+      <c r="I12">
+        <v>12</v>
+      </c>
+      <c r="J12">
+        <v>21</v>
+      </c>
       <c r="K12" t="s">
-        <v>27</v>
-      </c>
-      <c r="L12" t="s">
-        <v>171</v>
+        <v>62</v>
+      </c>
+      <c r="L12">
+        <v>2018.02</v>
       </c>
       <c r="M12" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="N12" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="O12" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="P12" t="s">
         <v>163</v>
@@ -4059,62 +4305,122 @@
         <v>164</v>
       </c>
       <c r="R12">
-        <v>160</v>
+        <v>12</v>
       </c>
       <c r="S12">
         <v>1</v>
       </c>
       <c r="T12">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="D13" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="E13" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="F13" t="s">
         <v>51</v>
       </c>
       <c r="G13" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="H13">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="I13">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J13">
-        <v>17</v>
+        <v>23</v>
+      </c>
+      <c r="K13" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" t="s">
+        <v>173</v>
+      </c>
+      <c r="M13" t="s">
+        <v>181</v>
+      </c>
+      <c r="N13" t="s">
+        <v>76</v>
+      </c>
+      <c r="O13" t="s">
+        <v>51</v>
+      </c>
+      <c r="P13" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>164</v>
+      </c>
+      <c r="R13">
+        <v>1500</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+      <c r="T13">
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" t="s">
+        <v>76</v>
+      </c>
+      <c r="H14">
+        <v>4000</v>
+      </c>
+      <c r="I14">
+        <v>15</v>
+      </c>
+      <c r="J14">
+        <v>24</v>
+      </c>
       <c r="K14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L14" t="s">
-        <v>173</v>
+        <v>72</v>
+      </c>
+      <c r="L14">
+        <v>2018.06</v>
       </c>
       <c r="M14" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="N14" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="O14" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="P14" t="s">
         <v>163</v>
@@ -4123,62 +4429,122 @@
         <v>164</v>
       </c>
       <c r="R14">
-        <v>20</v>
+        <v>4000</v>
       </c>
       <c r="S14">
         <v>1</v>
       </c>
       <c r="T14">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="D15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" t="s">
+        <v>76</v>
+      </c>
+      <c r="H15">
+        <v>4000</v>
+      </c>
+      <c r="I15">
+        <v>16</v>
+      </c>
+      <c r="J15">
         <v>25</v>
       </c>
-      <c r="E15" t="s">
+      <c r="K15" t="s">
+        <v>72</v>
+      </c>
+      <c r="L15" t="s">
+        <v>173</v>
+      </c>
+      <c r="M15" t="s">
+        <v>181</v>
+      </c>
+      <c r="N15" t="s">
+        <v>76</v>
+      </c>
+      <c r="O15" t="s">
+        <v>51</v>
+      </c>
+      <c r="P15" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>164</v>
+      </c>
+      <c r="R15">
+        <v>4000</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" t="s">
+        <v>76</v>
+      </c>
+      <c r="H16">
+        <v>4000</v>
+      </c>
+      <c r="I16">
+        <v>17</v>
+      </c>
+      <c r="J16">
         <v>26</v>
       </c>
-      <c r="F15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15">
-        <v>4800</v>
-      </c>
-      <c r="I15">
-        <v>9</v>
-      </c>
-      <c r="J15">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="K16" t="s">
-        <v>175</v>
-      </c>
-      <c r="L16">
-        <v>2018.03</v>
+        <v>72</v>
+      </c>
+      <c r="L16" t="s">
+        <v>171</v>
       </c>
       <c r="M16" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="N16" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="O16" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="P16" t="s">
         <v>163</v>
@@ -4187,126 +4553,246 @@
         <v>164</v>
       </c>
       <c r="R16">
-        <v>20</v>
+        <v>4000</v>
       </c>
       <c r="S16">
         <v>1</v>
       </c>
       <c r="T16">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="D17" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="E17" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="F17" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="G17" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="H17">
-        <v>36000</v>
+        <v>4200</v>
       </c>
       <c r="I17">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="J17">
+        <v>27</v>
+      </c>
+      <c r="K17" t="s">
+        <v>72</v>
+      </c>
+      <c r="L17">
+        <v>2018.04</v>
+      </c>
+      <c r="M17" t="s">
+        <v>184</v>
+      </c>
+      <c r="N17" t="s">
+        <v>76</v>
+      </c>
+      <c r="O17" t="s">
+        <v>89</v>
+      </c>
+      <c r="P17" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>185</v>
+      </c>
+      <c r="R17">
+        <v>4200</v>
+      </c>
+      <c r="S17">
+        <v>1</v>
+      </c>
+      <c r="T17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" t="s">
+        <v>91</v>
+      </c>
+      <c r="E18" t="s">
+        <v>92</v>
+      </c>
+      <c r="F18" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18" t="s">
+        <v>76</v>
+      </c>
+      <c r="H18">
+        <v>5600</v>
+      </c>
+      <c r="I18">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="J18">
+        <v>28</v>
+      </c>
       <c r="K18" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="L18">
-        <v>2018.07</v>
+        <v>2018.12</v>
       </c>
       <c r="M18" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="N18" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="O18" t="s">
         <v>51</v>
       </c>
       <c r="P18" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="Q18" t="s">
         <v>164</v>
       </c>
       <c r="R18">
-        <v>600</v>
+        <v>5600</v>
       </c>
       <c r="S18">
         <v>1</v>
       </c>
       <c r="T18">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="C19" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="D19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E19" t="s">
+        <v>95</v>
+      </c>
+      <c r="F19" t="s">
+        <v>89</v>
+      </c>
+      <c r="G19" t="s">
+        <v>76</v>
+      </c>
+      <c r="H19">
+        <v>6000</v>
+      </c>
+      <c r="I19">
         <v>20</v>
       </c>
-      <c r="E19" t="s">
+      <c r="J19">
+        <v>29</v>
+      </c>
+      <c r="K19" t="s">
+        <v>72</v>
+      </c>
+      <c r="L19">
+        <v>2018.05</v>
+      </c>
+      <c r="M19" t="s">
+        <v>187</v>
+      </c>
+      <c r="N19" t="s">
+        <v>76</v>
+      </c>
+      <c r="O19" t="s">
+        <v>89</v>
+      </c>
+      <c r="P19" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>164</v>
+      </c>
+      <c r="R19">
+        <v>6000</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="T19">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" t="s">
+        <v>97</v>
+      </c>
+      <c r="E20" t="s">
+        <v>98</v>
+      </c>
+      <c r="F20" t="s">
+        <v>51</v>
+      </c>
+      <c r="G20" t="s">
+        <v>76</v>
+      </c>
+      <c r="H20">
+        <v>8000</v>
+      </c>
+      <c r="I20">
         <v>21</v>
       </c>
-      <c r="F19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19">
-        <v>100</v>
-      </c>
-      <c r="I19">
-        <v>11</v>
-      </c>
-      <c r="J19">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="J20">
+        <v>30</v>
+      </c>
       <c r="K20" t="s">
-        <v>53</v>
-      </c>
-      <c r="L20">
-        <v>2018.12</v>
+        <v>72</v>
+      </c>
+      <c r="L20" t="s">
+        <v>171</v>
       </c>
       <c r="M20" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="N20" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="O20" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="P20" t="s">
         <v>163</v>
@@ -4315,56 +4801,116 @@
         <v>164</v>
       </c>
       <c r="R20">
-        <v>4800</v>
+        <v>8000</v>
       </c>
       <c r="S20">
         <v>1</v>
       </c>
       <c r="T20">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>99</v>
       </c>
       <c r="C21" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="D21" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="E21" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="F21" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="G21" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="H21">
-        <v>12</v>
+        <v>8000</v>
       </c>
       <c r="I21">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="J21">
-        <v>21</v>
+        <v>31</v>
+      </c>
+      <c r="K21" t="s">
+        <v>72</v>
+      </c>
+      <c r="L21">
+        <v>2018.12</v>
+      </c>
+      <c r="M21" t="s">
+        <v>186</v>
+      </c>
+      <c r="N21" t="s">
+        <v>76</v>
+      </c>
+      <c r="O21" t="s">
+        <v>51</v>
+      </c>
+      <c r="P21" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>164</v>
+      </c>
+      <c r="R21">
+        <v>8000</v>
+      </c>
+      <c r="S21">
+        <v>1</v>
+      </c>
+      <c r="T21">
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22" t="s">
+        <v>103</v>
+      </c>
+      <c r="C22" t="s">
+        <v>104</v>
+      </c>
+      <c r="D22" t="s">
+        <v>105</v>
+      </c>
+      <c r="E22" t="s">
+        <v>106</v>
+      </c>
+      <c r="F22" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22">
+        <v>8</v>
+      </c>
+      <c r="I22">
+        <v>23</v>
+      </c>
+      <c r="J22">
+        <v>32</v>
+      </c>
       <c r="K22" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="L22">
-        <v>2018.09</v>
+        <v>2018.07</v>
       </c>
       <c r="M22" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="N22" t="s">
         <v>16</v>
@@ -4373,126 +4919,246 @@
         <v>15</v>
       </c>
       <c r="P22" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="Q22" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="R22">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="S22">
         <v>1</v>
       </c>
       <c r="T22">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>62</v>
+        <v>107</v>
       </c>
       <c r="B23" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="C23" t="s">
-        <v>63</v>
+        <v>109</v>
       </c>
       <c r="D23" t="s">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="E23" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="F23" t="s">
+        <v>112</v>
+      </c>
+      <c r="G23" t="s">
+        <v>113</v>
+      </c>
+      <c r="H23">
+        <v>200</v>
+      </c>
+      <c r="I23">
+        <v>24</v>
+      </c>
+      <c r="J23">
+        <v>33</v>
+      </c>
+      <c r="K23" t="s">
+        <v>107</v>
+      </c>
+      <c r="L23">
+        <v>2018.07</v>
+      </c>
+      <c r="M23" t="s">
+        <v>189</v>
+      </c>
+      <c r="N23" t="s">
+        <v>113</v>
+      </c>
+      <c r="O23" t="s">
+        <v>112</v>
+      </c>
+      <c r="P23" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>179</v>
+      </c>
+      <c r="R23">
+        <v>200</v>
+      </c>
+      <c r="S23">
+        <v>1</v>
+      </c>
+      <c r="T23">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>114</v>
+      </c>
+      <c r="B24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" t="s">
+        <v>115</v>
+      </c>
+      <c r="D24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" t="s">
         <v>15</v>
       </c>
-      <c r="G23" t="s">
-        <v>71</v>
-      </c>
-      <c r="H23">
-        <v>20</v>
-      </c>
-      <c r="I23">
-        <v>13</v>
-      </c>
-      <c r="J23">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G24" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24">
+        <v>50</v>
+      </c>
+      <c r="I24">
+        <v>25</v>
+      </c>
+      <c r="J24">
+        <v>34</v>
+      </c>
       <c r="K24" t="s">
-        <v>62</v>
+        <v>114</v>
       </c>
       <c r="L24">
-        <v>2018.02</v>
+        <v>2018.09</v>
       </c>
       <c r="M24" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="N24" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="O24" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="P24" t="s">
-        <v>163</v>
+        <v>191</v>
       </c>
       <c r="Q24" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="R24">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="S24">
         <v>1</v>
       </c>
       <c r="T24">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>72</v>
+        <v>119</v>
       </c>
       <c r="B25" t="s">
+        <v>120</v>
+      </c>
+      <c r="C25" t="s">
+        <v>121</v>
+      </c>
+      <c r="D25" t="s">
+        <v>122</v>
+      </c>
+      <c r="E25" t="s">
+        <v>123</v>
+      </c>
+      <c r="F25" t="s">
+        <v>40</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25">
+        <v>20</v>
+      </c>
+      <c r="I25">
+        <v>27</v>
+      </c>
+      <c r="J25">
+        <v>36</v>
+      </c>
+      <c r="K25" t="s">
+        <v>119</v>
+      </c>
+      <c r="L25">
+        <v>2018.12</v>
+      </c>
+      <c r="M25" t="s">
+        <v>192</v>
+      </c>
+      <c r="N25" t="s">
+        <v>45</v>
+      </c>
+      <c r="O25" t="s">
+        <v>40</v>
+      </c>
+      <c r="P25" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>179</v>
+      </c>
+      <c r="R25">
+        <v>20</v>
+      </c>
+      <c r="S25">
+        <v>1</v>
+      </c>
+      <c r="T25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>124</v>
+      </c>
+      <c r="B26" t="s">
         <v>18</v>
       </c>
-      <c r="C25" t="s">
-        <v>73</v>
-      </c>
-      <c r="D25" t="s">
-        <v>74</v>
-      </c>
-      <c r="E25" t="s">
-        <v>75</v>
-      </c>
-      <c r="F25" t="s">
-        <v>51</v>
-      </c>
-      <c r="G25" t="s">
-        <v>76</v>
-      </c>
-      <c r="H25">
-        <v>1500</v>
-      </c>
-      <c r="I25">
-        <v>14</v>
-      </c>
-      <c r="J25">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>125</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26">
+        <v>50</v>
+      </c>
+      <c r="I26">
+        <v>28</v>
+      </c>
+      <c r="J26">
+        <v>37</v>
+      </c>
       <c r="K26" t="s">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="L26">
-        <v>2018.03</v>
+        <v>2018.09</v>
       </c>
       <c r="M26" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="N26" t="s">
         <v>16</v>
@@ -4501,62 +5167,122 @@
         <v>15</v>
       </c>
       <c r="P26" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="Q26" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="R26">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="S26">
         <v>1</v>
       </c>
       <c r="T26">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>72</v>
+        <v>126</v>
       </c>
       <c r="B27" t="s">
-        <v>77</v>
+        <v>127</v>
       </c>
       <c r="C27" t="s">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="D27" t="s">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="E27" t="s">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="F27" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G27" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="H27">
-        <v>4000</v>
+        <v>10</v>
       </c>
       <c r="I27">
+        <v>29</v>
+      </c>
+      <c r="J27">
+        <v>38</v>
+      </c>
+      <c r="K27" t="s">
+        <v>126</v>
+      </c>
+      <c r="L27">
+        <v>2018.02</v>
+      </c>
+      <c r="M27" t="s">
+        <v>197</v>
+      </c>
+      <c r="N27" t="s">
+        <v>45</v>
+      </c>
+      <c r="O27" t="s">
+        <v>40</v>
+      </c>
+      <c r="P27" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>179</v>
+      </c>
+      <c r="R27">
+        <v>10</v>
+      </c>
+      <c r="S27">
+        <v>1</v>
+      </c>
+      <c r="T27">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>131</v>
+      </c>
+      <c r="B28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" t="s">
+        <v>132</v>
+      </c>
+      <c r="D28" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28" t="s">
         <v>15</v>
       </c>
-      <c r="J27">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G28" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28">
+        <v>50</v>
+      </c>
+      <c r="I28">
+        <v>30</v>
+      </c>
+      <c r="J28">
+        <v>39</v>
+      </c>
       <c r="K28" t="s">
-        <v>72</v>
+        <v>131</v>
       </c>
       <c r="L28">
-        <v>2018.03</v>
+        <v>2018.09</v>
       </c>
       <c r="M28" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="N28" t="s">
         <v>16</v>
@@ -4565,386 +5291,536 @@
         <v>15</v>
       </c>
       <c r="P28" t="s">
-        <v>163</v>
+        <v>198</v>
       </c>
       <c r="Q28" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="R28">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="S28">
         <v>1</v>
       </c>
       <c r="T28">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>72</v>
+        <v>133</v>
       </c>
       <c r="B29" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="C29" t="s">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="D29" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="E29" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G29" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="H29">
-        <v>4000</v>
+        <v>20</v>
       </c>
       <c r="I29">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="J29">
-        <v>25</v>
+        <v>40</v>
+      </c>
+      <c r="K29" t="s">
+        <v>133</v>
+      </c>
+      <c r="L29" t="s">
+        <v>173</v>
+      </c>
+      <c r="M29" t="s">
+        <v>174</v>
+      </c>
+      <c r="N29" t="s">
+        <v>45</v>
+      </c>
+      <c r="O29" t="s">
+        <v>40</v>
+      </c>
+      <c r="P29" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>179</v>
+      </c>
+      <c r="R29">
+        <v>20</v>
+      </c>
+      <c r="S29">
+        <v>1</v>
+      </c>
+      <c r="T29">
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>135</v>
+      </c>
+      <c r="B30" t="s">
+        <v>136</v>
+      </c>
+      <c r="C30" t="s">
+        <v>137</v>
+      </c>
+      <c r="D30" t="s">
+        <v>138</v>
+      </c>
+      <c r="E30" t="s">
+        <v>139</v>
+      </c>
+      <c r="F30" t="s">
+        <v>112</v>
+      </c>
+      <c r="G30" t="s">
+        <v>140</v>
+      </c>
+      <c r="H30">
+        <v>50</v>
+      </c>
+      <c r="I30">
+        <v>32</v>
+      </c>
+      <c r="J30">
+        <v>41</v>
+      </c>
       <c r="K30" t="s">
-        <v>72</v>
-      </c>
-      <c r="L30" t="s">
-        <v>173</v>
+        <v>135</v>
+      </c>
+      <c r="L30">
+        <v>2018.12</v>
       </c>
       <c r="M30" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="N30" t="s">
-        <v>76</v>
+        <v>140</v>
       </c>
       <c r="O30" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="P30" t="s">
-        <v>163</v>
+        <v>193</v>
       </c>
       <c r="Q30" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="R30">
-        <v>1500</v>
+        <v>50</v>
       </c>
       <c r="S30">
         <v>1</v>
       </c>
       <c r="T30">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>72</v>
+        <v>141</v>
       </c>
       <c r="B31" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C31" t="s">
-        <v>73</v>
+        <v>142</v>
       </c>
       <c r="D31" t="s">
-        <v>84</v>
+        <v>143</v>
       </c>
       <c r="E31" t="s">
-        <v>85</v>
+        <v>144</v>
       </c>
       <c r="F31" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="G31" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="H31">
-        <v>4000</v>
+        <v>10</v>
       </c>
       <c r="I31">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="J31">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="K31" t="s">
-        <v>72</v>
+        <v>141</v>
       </c>
       <c r="L31">
-        <v>2018.06</v>
+        <v>2018.05</v>
       </c>
       <c r="M31" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="N31" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="O31" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="P31" t="s">
-        <v>163</v>
+        <v>198</v>
       </c>
       <c r="Q31" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="R31">
-        <v>4000</v>
+        <v>10</v>
       </c>
       <c r="S31">
         <v>1</v>
       </c>
       <c r="T31">
-        <v>17</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>72</v>
+        <v>141</v>
       </c>
       <c r="B32" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="C32" t="s">
-        <v>73</v>
+        <v>142</v>
       </c>
       <c r="D32" t="s">
-        <v>87</v>
+        <v>145</v>
       </c>
       <c r="E32" t="s">
-        <v>88</v>
+        <v>146</v>
       </c>
       <c r="F32" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="G32" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="H32">
-        <v>4200</v>
+        <v>3</v>
       </c>
       <c r="I32">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="J32">
-        <v>27</v>
+        <v>43</v>
+      </c>
+      <c r="K32" t="s">
+        <v>141</v>
+      </c>
+      <c r="L32" t="s">
+        <v>171</v>
+      </c>
+      <c r="M32" t="s">
+        <v>172</v>
+      </c>
+      <c r="N32" t="s">
+        <v>41</v>
+      </c>
+      <c r="O32" t="s">
+        <v>40</v>
+      </c>
+      <c r="P32" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>179</v>
+      </c>
+      <c r="R32">
+        <v>3</v>
+      </c>
+      <c r="S32">
+        <v>1</v>
+      </c>
+      <c r="T32">
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>147</v>
+      </c>
+      <c r="B33" t="s">
+        <v>148</v>
+      </c>
+      <c r="C33" t="s">
+        <v>149</v>
+      </c>
+      <c r="D33" t="s">
+        <v>150</v>
+      </c>
+      <c r="E33" t="s">
+        <v>151</v>
+      </c>
+      <c r="F33" t="s">
+        <v>32</v>
+      </c>
+      <c r="G33" t="s">
+        <v>33</v>
+      </c>
+      <c r="H33">
+        <v>20</v>
+      </c>
+      <c r="I33">
+        <v>35</v>
+      </c>
+      <c r="J33">
+        <v>44</v>
+      </c>
       <c r="K33" t="s">
-        <v>72</v>
+        <v>147</v>
       </c>
       <c r="L33" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M33" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="N33" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="O33" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="P33" t="s">
-        <v>163</v>
+        <v>202</v>
       </c>
       <c r="Q33" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="R33">
-        <v>4000</v>
+        <v>20</v>
       </c>
       <c r="S33">
         <v>1</v>
       </c>
       <c r="T33">
-        <v>18</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>72</v>
+        <v>147</v>
       </c>
       <c r="B34" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="C34" t="s">
-        <v>73</v>
+        <v>149</v>
       </c>
       <c r="D34" t="s">
-        <v>91</v>
+        <v>152</v>
       </c>
       <c r="E34" t="s">
-        <v>92</v>
+        <v>153</v>
       </c>
       <c r="F34" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="G34" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="H34">
-        <v>5600</v>
+        <v>20</v>
       </c>
       <c r="I34">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="J34">
-        <v>28</v>
+        <v>45</v>
+      </c>
+      <c r="K34" t="s">
+        <v>147</v>
+      </c>
+      <c r="L34">
+        <v>2018.06</v>
+      </c>
+      <c r="M34" t="s">
+        <v>203</v>
+      </c>
+      <c r="N34" t="s">
+        <v>33</v>
+      </c>
+      <c r="O34" t="s">
+        <v>32</v>
+      </c>
+      <c r="P34" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>179</v>
+      </c>
+      <c r="R34">
+        <v>20</v>
+      </c>
+      <c r="S34">
+        <v>1</v>
+      </c>
+      <c r="T34">
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="K35" t="s">
-        <v>72</v>
-      </c>
-      <c r="L35" t="s">
-        <v>171</v>
-      </c>
-      <c r="M35" t="s">
-        <v>183</v>
-      </c>
-      <c r="N35" t="s">
-        <v>76</v>
-      </c>
-      <c r="O35" t="s">
-        <v>51</v>
-      </c>
-      <c r="P35" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>164</v>
-      </c>
-      <c r="R35">
-        <v>4000</v>
-      </c>
-      <c r="S35">
-        <v>1</v>
-      </c>
-      <c r="T35">
+      <c r="A35" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" t="s">
+        <v>54</v>
+      </c>
+      <c r="D35" t="s">
+        <v>56</v>
+      </c>
+      <c r="E35" t="s">
+        <v>57</v>
+      </c>
+      <c r="F35" t="s">
+        <v>58</v>
+      </c>
+      <c r="G35" t="s">
+        <v>59</v>
+      </c>
+      <c r="H35">
+        <v>36000</v>
+      </c>
+      <c r="I35">
+        <v>10</v>
+      </c>
+      <c r="J35">
         <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B36" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="C36" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D36" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="E36" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="F36" t="s">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="G36" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H36">
-        <v>6000</v>
+        <v>20</v>
       </c>
       <c r="I36">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="J36">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="K37" t="s">
-        <v>72</v>
-      </c>
-      <c r="L37">
-        <v>2018.04</v>
-      </c>
-      <c r="M37" t="s">
-        <v>184</v>
-      </c>
-      <c r="N37" t="s">
-        <v>76</v>
-      </c>
-      <c r="O37" t="s">
-        <v>89</v>
-      </c>
-      <c r="P37" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>185</v>
-      </c>
-      <c r="R37">
-        <v>4200</v>
-      </c>
-      <c r="S37">
-        <v>1</v>
-      </c>
-      <c r="T37">
-        <v>20</v>
+      <c r="A37" t="s">
+        <v>114</v>
+      </c>
+      <c r="B37" t="s">
+        <v>116</v>
+      </c>
+      <c r="C37" t="s">
+        <v>115</v>
+      </c>
+      <c r="D37" t="s">
+        <v>117</v>
+      </c>
+      <c r="E37" t="s">
+        <v>118</v>
+      </c>
+      <c r="F37" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37" t="s">
+        <v>16</v>
+      </c>
+      <c r="H37">
+        <v>50</v>
+      </c>
+      <c r="I37">
+        <v>26</v>
+      </c>
+      <c r="J37">
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>72</v>
-      </c>
-      <c r="B38" t="s">
-        <v>96</v>
-      </c>
-      <c r="C38" t="s">
-        <v>73</v>
-      </c>
-      <c r="D38" t="s">
-        <v>97</v>
-      </c>
-      <c r="E38" t="s">
-        <v>98</v>
-      </c>
-      <c r="F38" t="s">
-        <v>51</v>
-      </c>
-      <c r="G38" t="s">
-        <v>76</v>
-      </c>
-      <c r="H38">
-        <v>8000</v>
-      </c>
-      <c r="I38">
-        <v>21</v>
-      </c>
-      <c r="J38">
-        <v>30</v>
+      <c r="K38" t="s">
+        <v>27</v>
+      </c>
+      <c r="L38">
+        <v>2018.03</v>
+      </c>
+      <c r="M38" t="s">
+        <v>167</v>
+      </c>
+      <c r="N38" t="s">
+        <v>16</v>
+      </c>
+      <c r="O38" t="s">
+        <v>15</v>
+      </c>
+      <c r="P38" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>164</v>
+      </c>
+      <c r="R38">
+        <v>25</v>
+      </c>
+      <c r="S38">
+        <v>1</v>
+      </c>
+      <c r="T38">
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="K39" t="s">
-        <v>72</v>
+        <v>175</v>
       </c>
       <c r="L39">
-        <v>2018.12</v>
+        <v>2018.03</v>
       </c>
       <c r="M39" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="N39" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="O39" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="P39" t="s">
         <v>163</v>
@@ -4953,45 +5829,45 @@
         <v>164</v>
       </c>
       <c r="R39">
-        <v>5600</v>
+        <v>20</v>
       </c>
       <c r="S39">
         <v>1</v>
       </c>
       <c r="T39">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>72</v>
-      </c>
-      <c r="B40" t="s">
-        <v>99</v>
-      </c>
-      <c r="C40" t="s">
-        <v>73</v>
-      </c>
-      <c r="D40" t="s">
-        <v>100</v>
-      </c>
-      <c r="E40" t="s">
-        <v>101</v>
-      </c>
-      <c r="F40" t="s">
-        <v>51</v>
-      </c>
-      <c r="G40" t="s">
-        <v>76</v>
-      </c>
-      <c r="H40">
-        <v>8000</v>
-      </c>
-      <c r="I40">
-        <v>22</v>
-      </c>
-      <c r="J40">
-        <v>31</v>
+      <c r="K40" t="s">
+        <v>62</v>
+      </c>
+      <c r="L40">
+        <v>2018.03</v>
+      </c>
+      <c r="M40" t="s">
+        <v>167</v>
+      </c>
+      <c r="N40" t="s">
+        <v>16</v>
+      </c>
+      <c r="O40" t="s">
+        <v>15</v>
+      </c>
+      <c r="P40" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>164</v>
+      </c>
+      <c r="R40">
+        <v>130</v>
+      </c>
+      <c r="S40">
+        <v>1</v>
+      </c>
+      <c r="T40">
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
@@ -4999,16 +5875,16 @@
         <v>72</v>
       </c>
       <c r="L41">
-        <v>2018.05</v>
+        <v>2018.03</v>
       </c>
       <c r="M41" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="N41" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="O41" t="s">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="P41" t="s">
         <v>163</v>
@@ -5017,1037 +5893,109 @@
         <v>164</v>
       </c>
       <c r="R41">
-        <v>6000</v>
+        <v>5</v>
       </c>
       <c r="S41">
         <v>1</v>
       </c>
       <c r="T41">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="K42" t="s">
         <v>102</v>
       </c>
-      <c r="B42" t="s">
-        <v>103</v>
-      </c>
-      <c r="C42" t="s">
-        <v>104</v>
-      </c>
-      <c r="D42" t="s">
-        <v>105</v>
-      </c>
-      <c r="E42" t="s">
-        <v>106</v>
-      </c>
-      <c r="F42" t="s">
+      <c r="L42">
+        <v>2018.03</v>
+      </c>
+      <c r="M42" t="s">
+        <v>188</v>
+      </c>
+      <c r="N42" t="s">
+        <v>16</v>
+      </c>
+      <c r="O42" t="s">
         <v>15</v>
       </c>
-      <c r="G42" t="s">
-        <v>16</v>
-      </c>
-      <c r="H42">
-        <v>8</v>
-      </c>
-      <c r="I42">
-        <v>23</v>
-      </c>
-      <c r="J42">
-        <v>32</v>
+      <c r="P42" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>164</v>
+      </c>
+      <c r="R42">
+        <v>6</v>
+      </c>
+      <c r="S42">
+        <v>1</v>
+      </c>
+      <c r="T42">
+        <v>25</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="K43" t="s">
-        <v>72</v>
-      </c>
-      <c r="L43" t="s">
-        <v>171</v>
+        <v>124</v>
+      </c>
+      <c r="L43">
+        <v>2018.03</v>
       </c>
       <c r="M43" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="N43" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="O43" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="P43" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="Q43" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="R43">
-        <v>8000</v>
+        <v>20</v>
       </c>
       <c r="S43">
         <v>1</v>
       </c>
       <c r="T43">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>107</v>
-      </c>
-      <c r="B44" t="s">
-        <v>108</v>
-      </c>
-      <c r="C44" t="s">
-        <v>109</v>
-      </c>
-      <c r="D44" t="s">
-        <v>110</v>
-      </c>
-      <c r="E44" t="s">
-        <v>111</v>
-      </c>
-      <c r="F44" t="s">
-        <v>112</v>
-      </c>
-      <c r="G44" t="s">
-        <v>113</v>
-      </c>
-      <c r="H44">
-        <v>200</v>
-      </c>
-      <c r="I44">
-        <v>24</v>
-      </c>
-      <c r="J44">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="K45" t="s">
-        <v>72</v>
-      </c>
-      <c r="L45">
-        <v>2018.12</v>
-      </c>
-      <c r="M45" t="s">
-        <v>186</v>
-      </c>
-      <c r="N45" t="s">
-        <v>76</v>
-      </c>
-      <c r="O45" t="s">
-        <v>51</v>
-      </c>
-      <c r="P45" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>164</v>
-      </c>
-      <c r="R45">
-        <v>8000</v>
-      </c>
-      <c r="S45">
-        <v>1</v>
-      </c>
-      <c r="T45">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>114</v>
-      </c>
-      <c r="B46" t="s">
-        <v>18</v>
-      </c>
-      <c r="C46" t="s">
-        <v>115</v>
-      </c>
-      <c r="D46" t="s">
-        <v>20</v>
-      </c>
-      <c r="E46" t="s">
-        <v>21</v>
-      </c>
-      <c r="F46" t="s">
+      <c r="K44" t="s">
+        <v>194</v>
+      </c>
+      <c r="L44">
+        <v>2018.03</v>
+      </c>
+      <c r="M44" t="s">
+        <v>195</v>
+      </c>
+      <c r="N44" t="s">
+        <v>16</v>
+      </c>
+      <c r="O44" t="s">
         <v>15</v>
       </c>
-      <c r="G46" t="s">
-        <v>16</v>
-      </c>
-      <c r="H46">
-        <v>50</v>
-      </c>
-      <c r="I46">
-        <v>25</v>
-      </c>
-      <c r="J46">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="K47" t="s">
-        <v>102</v>
-      </c>
-      <c r="L47">
-        <v>2018.03</v>
-      </c>
-      <c r="M47" t="s">
-        <v>188</v>
-      </c>
-      <c r="N47" t="s">
-        <v>16</v>
-      </c>
-      <c r="O47" t="s">
-        <v>15</v>
-      </c>
-      <c r="P47" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>164</v>
-      </c>
-      <c r="R47">
-        <v>6</v>
-      </c>
-      <c r="S47">
-        <v>1</v>
-      </c>
-      <c r="T47">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>114</v>
-      </c>
-      <c r="B48" t="s">
-        <v>116</v>
-      </c>
-      <c r="C48" t="s">
-        <v>115</v>
-      </c>
-      <c r="D48" t="s">
-        <v>117</v>
-      </c>
-      <c r="E48" t="s">
-        <v>118</v>
-      </c>
-      <c r="F48" t="s">
-        <v>15</v>
-      </c>
-      <c r="G48" t="s">
-        <v>16</v>
-      </c>
-      <c r="H48">
-        <v>50</v>
-      </c>
-      <c r="I48">
-        <v>26</v>
-      </c>
-      <c r="J48">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="K49" t="s">
-        <v>102</v>
-      </c>
-      <c r="L49">
-        <v>2018.07</v>
-      </c>
-      <c r="M49" t="s">
-        <v>162</v>
-      </c>
-      <c r="N49" t="s">
-        <v>16</v>
-      </c>
-      <c r="O49" t="s">
-        <v>15</v>
-      </c>
-      <c r="P49" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>185</v>
-      </c>
-      <c r="R49">
-        <v>8</v>
-      </c>
-      <c r="S49">
-        <v>1</v>
-      </c>
-      <c r="T49">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>119</v>
-      </c>
-      <c r="B50" t="s">
-        <v>120</v>
-      </c>
-      <c r="C50" t="s">
-        <v>121</v>
-      </c>
-      <c r="D50" t="s">
-        <v>122</v>
-      </c>
-      <c r="E50" t="s">
-        <v>123</v>
-      </c>
-      <c r="F50" t="s">
-        <v>40</v>
-      </c>
-      <c r="G50" t="s">
-        <v>45</v>
-      </c>
-      <c r="H50">
-        <v>20</v>
-      </c>
-      <c r="I50">
-        <v>27</v>
-      </c>
-      <c r="J50">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="K51" t="s">
-        <v>107</v>
-      </c>
-      <c r="L51">
-        <v>2018.07</v>
-      </c>
-      <c r="M51" t="s">
-        <v>189</v>
-      </c>
-      <c r="N51" t="s">
-        <v>113</v>
-      </c>
-      <c r="O51" t="s">
-        <v>112</v>
-      </c>
-      <c r="P51" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q51" t="s">
+      <c r="P44" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q44" t="s">
         <v>179</v>
       </c>
-      <c r="R51">
-        <v>200</v>
-      </c>
-      <c r="S51">
-        <v>1</v>
-      </c>
-      <c r="T51">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>124</v>
-      </c>
-      <c r="B52" t="s">
-        <v>18</v>
-      </c>
-      <c r="C52" t="s">
-        <v>125</v>
-      </c>
-      <c r="D52" t="s">
-        <v>20</v>
-      </c>
-      <c r="E52" t="s">
-        <v>21</v>
-      </c>
-      <c r="F52" t="s">
-        <v>15</v>
-      </c>
-      <c r="G52" t="s">
-        <v>16</v>
-      </c>
-      <c r="H52">
-        <v>50</v>
-      </c>
-      <c r="I52">
-        <v>28</v>
-      </c>
-      <c r="J52">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="K53" t="s">
-        <v>114</v>
-      </c>
-      <c r="L53">
-        <v>2018.09</v>
-      </c>
-      <c r="M53" t="s">
-        <v>165</v>
-      </c>
-      <c r="N53" t="s">
-        <v>16</v>
-      </c>
-      <c r="O53" t="s">
-        <v>15</v>
-      </c>
-      <c r="P53" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q53" t="s">
-        <v>179</v>
-      </c>
-      <c r="R53">
-        <v>50</v>
-      </c>
-      <c r="S53">
-        <v>1</v>
-      </c>
-      <c r="T53">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>126</v>
-      </c>
-      <c r="B54" t="s">
-        <v>127</v>
-      </c>
-      <c r="C54" t="s">
-        <v>128</v>
-      </c>
-      <c r="D54" t="s">
-        <v>129</v>
-      </c>
-      <c r="E54" t="s">
-        <v>130</v>
-      </c>
-      <c r="F54" t="s">
-        <v>40</v>
-      </c>
-      <c r="G54" t="s">
-        <v>45</v>
-      </c>
-      <c r="H54">
-        <v>10</v>
-      </c>
-      <c r="I54">
-        <v>29</v>
-      </c>
-      <c r="J54">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="K55" t="s">
-        <v>119</v>
-      </c>
-      <c r="L55">
-        <v>2018.12</v>
-      </c>
-      <c r="M55" t="s">
-        <v>192</v>
-      </c>
-      <c r="N55" t="s">
-        <v>45</v>
-      </c>
-      <c r="O55" t="s">
-        <v>40</v>
-      </c>
-      <c r="P55" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>179</v>
-      </c>
-      <c r="R55">
-        <v>20</v>
-      </c>
-      <c r="S55">
-        <v>1</v>
-      </c>
-      <c r="T55">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>131</v>
-      </c>
-      <c r="B56" t="s">
-        <v>18</v>
-      </c>
-      <c r="C56" t="s">
-        <v>132</v>
-      </c>
-      <c r="D56" t="s">
-        <v>20</v>
-      </c>
-      <c r="E56" t="s">
-        <v>21</v>
-      </c>
-      <c r="F56" t="s">
-        <v>15</v>
-      </c>
-      <c r="G56" t="s">
-        <v>16</v>
-      </c>
-      <c r="H56">
-        <v>50</v>
-      </c>
-      <c r="I56">
-        <v>30</v>
-      </c>
-      <c r="J56">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="K57" t="s">
-        <v>124</v>
-      </c>
-      <c r="L57">
-        <v>2018.03</v>
-      </c>
-      <c r="M57" t="s">
-        <v>167</v>
-      </c>
-      <c r="N57" t="s">
-        <v>16</v>
-      </c>
-      <c r="O57" t="s">
-        <v>15</v>
-      </c>
-      <c r="P57" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q57" t="s">
-        <v>179</v>
-      </c>
-      <c r="R57">
-        <v>20</v>
-      </c>
-      <c r="S57">
-        <v>1</v>
-      </c>
-      <c r="T57">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>133</v>
-      </c>
-      <c r="B58" t="s">
-        <v>42</v>
-      </c>
-      <c r="C58" t="s">
-        <v>134</v>
-      </c>
-      <c r="D58" t="s">
-        <v>43</v>
-      </c>
-      <c r="E58" t="s">
-        <v>44</v>
-      </c>
-      <c r="F58" t="s">
-        <v>40</v>
-      </c>
-      <c r="G58" t="s">
-        <v>45</v>
-      </c>
-      <c r="H58">
-        <v>20</v>
-      </c>
-      <c r="I58">
-        <v>31</v>
-      </c>
-      <c r="J58">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="K59" t="s">
-        <v>124</v>
-      </c>
-      <c r="L59">
-        <v>2018.09</v>
-      </c>
-      <c r="M59" t="s">
-        <v>165</v>
-      </c>
-      <c r="N59" t="s">
-        <v>16</v>
-      </c>
-      <c r="O59" t="s">
-        <v>15</v>
-      </c>
-      <c r="P59" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q59" t="s">
-        <v>179</v>
-      </c>
-      <c r="R59">
-        <v>50</v>
-      </c>
-      <c r="S59">
-        <v>1</v>
-      </c>
-      <c r="T59">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>135</v>
-      </c>
-      <c r="B60" t="s">
-        <v>136</v>
-      </c>
-      <c r="C60" t="s">
-        <v>137</v>
-      </c>
-      <c r="D60" t="s">
-        <v>138</v>
-      </c>
-      <c r="E60" t="s">
-        <v>139</v>
-      </c>
-      <c r="F60" t="s">
-        <v>112</v>
-      </c>
-      <c r="G60" t="s">
-        <v>140</v>
-      </c>
-      <c r="H60">
-        <v>50</v>
-      </c>
-      <c r="I60">
+      <c r="R44">
+        <v>1000</v>
+      </c>
+      <c r="S44">
+        <v>1</v>
+      </c>
+      <c r="T44">
         <v>32</v>
-      </c>
-      <c r="J60">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="K61" t="s">
-        <v>194</v>
-      </c>
-      <c r="L61">
-        <v>2018.03</v>
-      </c>
-      <c r="M61" t="s">
-        <v>195</v>
-      </c>
-      <c r="N61" t="s">
-        <v>16</v>
-      </c>
-      <c r="O61" t="s">
-        <v>15</v>
-      </c>
-      <c r="P61" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q61" t="s">
-        <v>179</v>
-      </c>
-      <c r="R61">
-        <v>1000</v>
-      </c>
-      <c r="S61">
-        <v>1</v>
-      </c>
-      <c r="T61">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>141</v>
-      </c>
-      <c r="B62" t="s">
-        <v>93</v>
-      </c>
-      <c r="C62" t="s">
-        <v>142</v>
-      </c>
-      <c r="D62" t="s">
-        <v>143</v>
-      </c>
-      <c r="E62" t="s">
-        <v>144</v>
-      </c>
-      <c r="F62" t="s">
-        <v>32</v>
-      </c>
-      <c r="G62" t="s">
-        <v>33</v>
-      </c>
-      <c r="H62">
-        <v>10</v>
-      </c>
-      <c r="I62">
-        <v>33</v>
-      </c>
-      <c r="J62">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="K63" t="s">
-        <v>126</v>
-      </c>
-      <c r="L63">
-        <v>2018.02</v>
-      </c>
-      <c r="M63" t="s">
-        <v>197</v>
-      </c>
-      <c r="N63" t="s">
-        <v>45</v>
-      </c>
-      <c r="O63" t="s">
-        <v>40</v>
-      </c>
-      <c r="P63" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q63" t="s">
-        <v>179</v>
-      </c>
-      <c r="R63">
-        <v>10</v>
-      </c>
-      <c r="S63">
-        <v>1</v>
-      </c>
-      <c r="T63">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>141</v>
-      </c>
-      <c r="B64" t="s">
-        <v>55</v>
-      </c>
-      <c r="C64" t="s">
-        <v>142</v>
-      </c>
-      <c r="D64" t="s">
-        <v>145</v>
-      </c>
-      <c r="E64" t="s">
-        <v>146</v>
-      </c>
-      <c r="F64" t="s">
-        <v>40</v>
-      </c>
-      <c r="G64" t="s">
-        <v>41</v>
-      </c>
-      <c r="H64">
-        <v>3</v>
-      </c>
-      <c r="I64">
-        <v>34</v>
-      </c>
-      <c r="J64">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="K65" t="s">
-        <v>131</v>
-      </c>
-      <c r="L65">
-        <v>2018.09</v>
-      </c>
-      <c r="M65" t="s">
-        <v>165</v>
-      </c>
-      <c r="N65" t="s">
-        <v>16</v>
-      </c>
-      <c r="O65" t="s">
-        <v>15</v>
-      </c>
-      <c r="P65" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q65" t="s">
-        <v>179</v>
-      </c>
-      <c r="R65">
-        <v>50</v>
-      </c>
-      <c r="S65">
-        <v>1</v>
-      </c>
-      <c r="T65">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>147</v>
-      </c>
-      <c r="B66" t="s">
-        <v>148</v>
-      </c>
-      <c r="C66" t="s">
-        <v>149</v>
-      </c>
-      <c r="D66" t="s">
-        <v>150</v>
-      </c>
-      <c r="E66" t="s">
-        <v>151</v>
-      </c>
-      <c r="F66" t="s">
-        <v>32</v>
-      </c>
-      <c r="G66" t="s">
-        <v>33</v>
-      </c>
-      <c r="H66">
-        <v>20</v>
-      </c>
-      <c r="I66">
-        <v>35</v>
-      </c>
-      <c r="J66">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="K67" t="s">
-        <v>133</v>
-      </c>
-      <c r="L67" t="s">
-        <v>173</v>
-      </c>
-      <c r="M67" t="s">
-        <v>174</v>
-      </c>
-      <c r="N67" t="s">
-        <v>45</v>
-      </c>
-      <c r="O67" t="s">
-        <v>40</v>
-      </c>
-      <c r="P67" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q67" t="s">
-        <v>179</v>
-      </c>
-      <c r="R67">
-        <v>20</v>
-      </c>
-      <c r="S67">
-        <v>1</v>
-      </c>
-      <c r="T67">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>147</v>
-      </c>
-      <c r="B68" t="s">
-        <v>99</v>
-      </c>
-      <c r="C68" t="s">
-        <v>149</v>
-      </c>
-      <c r="D68" t="s">
-        <v>152</v>
-      </c>
-      <c r="E68" t="s">
-        <v>153</v>
-      </c>
-      <c r="F68" t="s">
-        <v>32</v>
-      </c>
-      <c r="G68" t="s">
-        <v>33</v>
-      </c>
-      <c r="H68">
-        <v>20</v>
-      </c>
-      <c r="I68">
-        <v>36</v>
-      </c>
-      <c r="J68">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="K69" t="s">
-        <v>135</v>
-      </c>
-      <c r="L69">
-        <v>2018.12</v>
-      </c>
-      <c r="M69" t="s">
-        <v>199</v>
-      </c>
-      <c r="N69" t="s">
-        <v>140</v>
-      </c>
-      <c r="O69" t="s">
-        <v>112</v>
-      </c>
-      <c r="P69" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q69" t="s">
-        <v>179</v>
-      </c>
-      <c r="R69">
-        <v>50</v>
-      </c>
-      <c r="S69">
-        <v>1</v>
-      </c>
-      <c r="T69">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="K70" t="s">
-        <v>141</v>
-      </c>
-      <c r="L70">
-        <v>2018.05</v>
-      </c>
-      <c r="M70" t="s">
-        <v>200</v>
-      </c>
-      <c r="N70" t="s">
-        <v>33</v>
-      </c>
-      <c r="O70" t="s">
-        <v>32</v>
-      </c>
-      <c r="P70" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q70" t="s">
-        <v>179</v>
-      </c>
-      <c r="R70">
-        <v>10</v>
-      </c>
-      <c r="S70">
-        <v>1</v>
-      </c>
-      <c r="T70">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="K71" t="s">
-        <v>141</v>
-      </c>
-      <c r="L71" t="s">
-        <v>171</v>
-      </c>
-      <c r="M71" t="s">
-        <v>172</v>
-      </c>
-      <c r="N71" t="s">
-        <v>41</v>
-      </c>
-      <c r="O71" t="s">
-        <v>40</v>
-      </c>
-      <c r="P71" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q71" t="s">
-        <v>179</v>
-      </c>
-      <c r="R71">
-        <v>3</v>
-      </c>
-      <c r="S71">
-        <v>1</v>
-      </c>
-      <c r="T71">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="K72" t="s">
-        <v>147</v>
-      </c>
-      <c r="L72" t="s">
-        <v>171</v>
-      </c>
-      <c r="M72" t="s">
-        <v>201</v>
-      </c>
-      <c r="N72" t="s">
-        <v>33</v>
-      </c>
-      <c r="O72" t="s">
-        <v>32</v>
-      </c>
-      <c r="P72" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q72" t="s">
-        <v>179</v>
-      </c>
-      <c r="R72">
-        <v>20</v>
-      </c>
-      <c r="S72">
-        <v>1</v>
-      </c>
-      <c r="T72">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="K73" t="s">
-        <v>147</v>
-      </c>
-      <c r="L73">
-        <v>2018.06</v>
-      </c>
-      <c r="M73" t="s">
-        <v>203</v>
-      </c>
-      <c r="N73" t="s">
-        <v>33</v>
-      </c>
-      <c r="O73" t="s">
-        <v>32</v>
-      </c>
-      <c r="P73" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q73" t="s">
-        <v>179</v>
-      </c>
-      <c r="R73">
-        <v>20</v>
-      </c>
-      <c r="S73">
-        <v>1</v>
-      </c>
-      <c r="T73">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
